--- a/spark_report/web/WEB-INF/classes/report.xlsx
+++ b/spark_report/web/WEB-INF/classes/report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>时间</t>
   </si>
@@ -217,16 +217,34 @@
   <si>
     <t>SELECT SUM(actualpay) FROM tra_pay_road WHERE date= $date  AND isvalid=1</t>
   </si>
+  <si>
+    <t>2018/06/06</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(1) FROM tra_order WHERE date= '2018-06-03'</t>
+  </si>
+  <si>
+    <t>11160000</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(1) FROM tra_order WHERE date= '2018-06-03' AND isvalid=1 AND shouldpay=0</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(1) FROM tra_order WHERE date= '2018-06-03'  AND isvalid=1 AND carproperty=2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1327,52 +1345,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="24" customWidth="1"/>
-    <col min="7" max="9" width="8.375" style="24" customWidth="1"/>
-    <col min="10" max="11" width="9.25" style="24" customWidth="1"/>
-    <col min="12" max="12" width="8.375" style="24" customWidth="1"/>
-    <col min="13" max="17" width="10.75" style="24" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="24" customWidth="1"/>
-    <col min="19" max="20" width="11.25" style="24" customWidth="1"/>
-    <col min="21" max="29" width="8.625" style="24" customWidth="1"/>
-    <col min="30" max="30" width="10.5" style="26" customWidth="1"/>
-    <col min="31" max="31" width="11.125" style="26" customWidth="1"/>
-    <col min="32" max="32" width="10.125" style="26" customWidth="1"/>
-    <col min="33" max="33" width="9.625" style="26" customWidth="1"/>
-    <col min="34" max="34" width="9.25" style="26" customWidth="1"/>
-    <col min="35" max="35" width="10.25" style="24" customWidth="1"/>
-    <col min="36" max="36" width="10.875" style="24" customWidth="1"/>
-    <col min="37" max="37" width="9.625" style="24" customWidth="1"/>
-    <col min="38" max="38" width="9" style="24" customWidth="1"/>
-    <col min="39" max="39" width="9.625" style="24" customWidth="1"/>
-    <col min="40" max="41" width="8.25" style="24" customWidth="1"/>
-    <col min="42" max="42" width="9.375" style="24" customWidth="1"/>
-    <col min="43" max="43" width="10" style="24" customWidth="1"/>
-    <col min="44" max="44" width="10.375" style="24" customWidth="1"/>
-    <col min="45" max="45" width="10.125" style="24" customWidth="1"/>
-    <col min="46" max="49" width="8.125" style="24" customWidth="1"/>
-    <col min="50" max="50" width="10.25" style="24" customWidth="1"/>
-    <col min="51" max="51" width="9.75" style="24" customWidth="1"/>
-    <col min="52" max="53" width="10.625" style="24" customWidth="1"/>
-    <col min="54" max="54" width="9.5" style="24" customWidth="1"/>
-    <col min="55" max="55" width="9.625" style="24" customWidth="1"/>
-    <col min="56" max="57" width="9.25" style="24" customWidth="1"/>
-    <col min="58" max="58" width="10" style="24" customWidth="1"/>
-    <col min="59" max="59" width="10.25" style="24" customWidth="1"/>
-    <col min="60" max="60" width="9.25" style="24" customWidth="1"/>
-    <col min="61" max="61" width="13.625" style="26" customWidth="1"/>
-    <col min="62" max="62" width="11.25" style="24" customWidth="1"/>
-    <col min="63" max="63" width="12" style="24" customWidth="1"/>
-    <col min="64" max="64" width="17.5" style="24" customWidth="1"/>
-    <col min="65" max="65" width="19.5" style="24" customWidth="1"/>
-    <col min="66" max="66" width="17.5" style="24" customWidth="1"/>
-    <col min="67" max="67" width="19.5" style="24" customWidth="1"/>
-    <col min="68" max="16384" width="9" style="24"/>
+    <col min="1" max="1" customWidth="true" style="24" width="14.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="11.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="24" width="12.75" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="24" width="13.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="24" width="8.375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="24" width="8.375" collapsed="true"/>
+    <col min="13" max="17" customWidth="true" style="24" width="10.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="21" max="29" customWidth="true" style="24" width="8.625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="26" width="10.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="26" width="11.125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="26" width="10.125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="26" width="9.625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="26" width="9.25" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="24" width="10.875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="24" width="9.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" style="24" width="8.25" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="24" width="9.375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="24" width="10.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="24" width="10.375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="24" width="10.125" collapsed="true"/>
+    <col min="46" max="49" customWidth="true" style="24" width="8.125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="24" width="9.75" collapsed="true"/>
+    <col min="52" max="53" customWidth="true" style="24" width="10.625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" style="24" width="9.5" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="56" max="57" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="24" width="10.0" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="26" width="13.625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" style="24" width="12.0" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="24" width="17.5" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="24" width="19.5" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="24" width="17.5" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="24" width="19.5" collapsed="true"/>
+    <col min="68" max="16384" style="24" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" ht="16.5" spans="1:67">
@@ -1836,6 +1854,20 @@
       <c r="BM4" s="21"/>
       <c r="BN4" s="21"/>
       <c r="BO4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -1892,52 +1924,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.25" style="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="8.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="10.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="11.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="29" width="8.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.5" style="26" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.125" style="26" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.125" style="26" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="9.625" style="26" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.25" style="26" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.875" style="24" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9" style="24" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="8.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="9.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="10" style="24" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="10.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10.125" style="24" customWidth="1" collapsed="1"/>
-    <col min="46" max="49" width="8.125" style="24" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="9.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="10.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="9.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="9.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="56" max="57" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="10" style="24" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="13.625" style="26" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="12" style="24" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="17.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="19.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9" style="24" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="24" width="14.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="11.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="24" width="12.75" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="24" width="13.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="24" width="8.375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="24" width="8.375" collapsed="true"/>
+    <col min="13" max="17" customWidth="true" style="24" width="10.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="21" max="29" customWidth="true" style="24" width="8.625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="26" width="10.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="26" width="11.125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="26" width="10.125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="26" width="9.625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="26" width="9.25" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="24" width="10.875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="24" width="9.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" style="24" width="8.25" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="24" width="9.375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="24" width="10.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="24" width="10.375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="24" width="10.125" collapsed="true"/>
+    <col min="46" max="49" customWidth="true" style="24" width="8.125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="24" width="9.75" collapsed="true"/>
+    <col min="52" max="53" customWidth="true" style="24" width="10.625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" style="24" width="9.5" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="56" max="57" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="24" width="10.0" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="26" width="13.625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" style="24" width="12.0" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="24" width="17.5" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="24" width="19.5" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="24" width="17.5" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="24" width="19.5" collapsed="true"/>
+    <col min="68" max="16384" style="24" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" ht="16.5" spans="1:67">
@@ -4347,52 +4379,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.25" style="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="8.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="13" max="17" width="10.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="11.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="21" max="29" width="8.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.5" style="26" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.125" style="26" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.125" style="26" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="9.625" style="26" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.25" style="26" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="10.875" style="24" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9" style="24" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="8.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="9.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="10" style="24" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="10.375" style="24" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10.125" style="24" customWidth="1" collapsed="1"/>
-    <col min="46" max="49" width="8.125" style="24" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="9.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="10.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="9.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="9.625" style="24" customWidth="1" collapsed="1"/>
-    <col min="56" max="57" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="10" style="24" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="9.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="13.625" style="26" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11.25" style="24" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="12" style="24" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="17.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="19.5" style="24" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9" style="24" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="24" width="14.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="11.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="24" width="12.75" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="24" width="13.75" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="24" width="8.375" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="24" width="8.375" collapsed="true"/>
+    <col min="13" max="17" customWidth="true" style="24" width="10.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="21" max="29" customWidth="true" style="24" width="8.625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="26" width="10.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="26" width="11.125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="26" width="10.125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="26" width="9.625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="26" width="9.25" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="24" width="10.875" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="24" width="9.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" style="24" width="8.25" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="24" width="9.375" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="24" width="10.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="24" width="10.375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="24" width="10.125" collapsed="true"/>
+    <col min="46" max="49" customWidth="true" style="24" width="8.125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="24" width="9.75" collapsed="true"/>
+    <col min="52" max="53" customWidth="true" style="24" width="10.625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" style="24" width="9.5" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" style="24" width="9.625" collapsed="true"/>
+    <col min="56" max="57" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="24" width="10.0" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" style="24" width="10.25" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" style="24" width="9.25" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="26" width="13.625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" style="24" width="11.25" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" style="24" width="12.0" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="24" width="17.5" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="24" width="19.5" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="24" width="17.5" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="24" width="19.5" collapsed="true"/>
+    <col min="68" max="16384" style="24" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" ht="16.5" spans="1:67">
@@ -6802,8 +6834,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:67">
